--- a/forms/app/sadr.xlsx
+++ b/forms/app/sadr.xlsx
@@ -38241,7 +38241,7 @@
       </c>
       <c r="C2" s="91">
         <f>NOW()</f>
-        <v>45033.32727</v>
+        <v>45033.33737</v>
       </c>
       <c r="D2" s="92" t="s">
         <v>844</v>
